--- a/sessions/data/Part_I/Congressional_Bills/Congressional_Bills.xlsx
+++ b/sessions/data/Part_I/Congressional_Bills/Congressional_Bills.xlsx
@@ -468,17 +468,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06691/2023-CR</t>
+          <t>Proyecto de Ley 06719/2023-CR</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fecha de Presentación18/12/2023</t>
+          <t>Fecha de Presentación20/12/2023</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>TítuloLEY DE EXPULSIÓN DE EXTRANJEROS DETENIDOS EN FLAGRANCIA DELICTIVA</t>
+          <t>TítuloLEY QUE ESTABLECE DISPOSICIONES PARA PREVENIR LA CORRUPCIÓN EN LA EJECUCIÓN DE OBRAS PÚBLICAS Y MEJORA LOS PROCESOS DE CONTRATACIÓN PARA LA LIQUIDACIÓN DE OBRAS, MODIFICANDO EL TEXTO ÚNICO ORDENADO DE LA LEY 30225, LEY DE CONTRATACIONES DEL ESTADO</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -493,24 +493,24 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>AutoresOlivos Martínez, Vivian Ventura Ángel, Héctor José Revilla Villanueva, César Manuel ver más...</t>
+          <t>AutoresYarrow Lumbreras, Norma Martina Córdova Lobatón, María Jessica Chirinos Venegas, Patricia Rosa ver más...</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06690/2023-CR</t>
+          <t>Proyecto de Ley 06718/2023-CR</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fecha de Presentación18/12/2023</t>
+          <t>Fecha de Presentación20/12/2023</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE CREA LA UNIVERSIDAD NACIONAL AUTÓNOMA DEL VILCANOTA</t>
+          <t>TítuloLEY QUE MODIFICA LOS ARTICULOS 131° Y 132° DEL CÓDIGO PENAL, MODIFICA EL ARTICULO 1969° DEL CÓDIGO CIVIL Y LOS ARTÍCULOS 2° Y 3° DE LA LEY N°26847, FORTALECIENDO LOS DERECHOS FUNDAMENTALES AL HONOR, LA BUENA REPUTACIÓN Y A LA INTIMIDAD PERSONAL</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -525,24 +525,24 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>AutoresBalcázar Zelada, José María Coayla Juárez, Jorge Samuel Marticorena Mendoza, Jorge Alfonso ver más...</t>
+          <t>AutoresMontalvo Cubas, Segundo Toribio Palacios Huamán, Margot Cruz Mamani, Flavio ver más...</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06689/2023-CR</t>
+          <t>Proyecto de Ley 06717/2023-CR</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fecha de Presentación18/12/2023</t>
+          <t>Fecha de Presentación20/12/2023</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>TítuloLEY MARCO PARA LA PROTECCIÓN Y FORTALECIMIENTO DE LA FAMILIA</t>
+          <t>TítuloLEY QUE MODIFICA LOS ARTÍCULOS 2 Y 3 LITERAL A) DEL DECRETO LEGISLATIVO N° 1182 DECRETO LEGISLATIVO QUE REGULA EL USO DE LOS DATOS DERIVADOS DE LAS TELECOMUNICACIONES PARA LA IDENTIFICACIÓN, LOCALIZACIÓN Y GEOLOCALIZACIÓN DE EQUIPOS DE COMUNICACIÓN, EN LA LUCHA CONTRA LA DELINCUENCIA Y EL CRIMEN ORGANIZAD</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -557,24 +557,24 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>AutoresJáuregui Martínez de Aguayo, María de los Milagros Jackeline Huamán Coronado, Raúl Infantes Castañeda, Mery Eliana ver más...</t>
+          <t>AutoresAzurín Loayza, Alfredo Jerí Oré, José Enrique Pazo Nunura, Jose Bernardo ver más...</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06688/2023-CR</t>
+          <t>Proyecto de Ley 06716/2023-CR</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Fecha de Presentación18/12/2023</t>
+          <t>Fecha de Presentación20/12/2023</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE ESTABLECE PARÁMETROS PARA EL SANEAMIENTO DE LA PROPIEDAD DE LOS POSESIONARIOS DE VIVIENDA CONSTRUIDAS CON RECURSOS DEL FONAVI</t>
+          <t>TítuloLEY QUE MODIFICA ARTÍCULO 3 DE LA LEY 29701, LEY QUE DISPONE BENEFICIOS A FAVOR DE LOS INTEGRANTES DE LAS JUNTAS VECINALES Y ESTABLECE EL DÍA DE LAS JUNTAS VECINALES DE SEGURIDAD CIUDADANA, CON EL FIN DE PROMOVER EL INGRESO DE SUS MIEMBROS EN LAS FUERZAS ARMADAS Y POLICÍA NACIONAL DEL PERÚ</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -589,24 +589,24 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>AutoresLimachi Quispe, Nieves Esmeralda Bazán Narro, Sigrid Tesoro Cortez Aguirre, Isabel ver más...</t>
+          <t>AutoresAragón Carreño, Luis Ángel Vergara Mendoza, Elvis Hernán Espinoza Vargas, Jhaec Darwin ver más...</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06687/2023-CR</t>
+          <t>Proyecto de Ley 06715/2023-CR</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Fecha de Presentación15/12/2023</t>
+          <t>Fecha de Presentación20/12/2023</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE MODIFICA EL DECRETO LEGISLATIVO N° 1372, DECRETO LEGISLATIVO QUE REGULA LA OBLIGACIÓN DE LAS PERSONAS JURÍDICAS Y/O ENTES JURÍDICOS DE INFORMAR LA IDENTIFICACIÓN DE LOS BENEFICIARIOS FINALES</t>
+          <t>TítuloLEY QUE DECLARA EL 21 DE JUNIO DEL AÑO 1825 COMO FECHA DE CREACIÓN POLÍTICA DEL DISTRITO DE PISAC, PROVINCIA DE CALCA Y DEPARTAMENTO DE CUSCO</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -621,24 +621,24 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>AutoresAnderson Ramírez, Carlos Antonio</t>
+          <t>AutoresAragón Carreño, Luis Ángel Espinoza Vargas, Jhaec Darwin Flores Ancachi, Jorge Luis ver más...</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06686/2023-CR</t>
+          <t>Proyecto de Ley 06714/2023-CR</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Fecha de Presentación15/12/2023</t>
+          <t>Fecha de Presentación20/12/2023</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE MODIFICA EL ARTÍCULO 382 DEL CÓDIGO PENAL</t>
+          <t>TítuloLEY QUE MODIFICA EL CÓDIGO PENAL PARA GARANTIZAR EL PRINCIPIO DE PRESUNCION DE INOCENCIA EN EL PROCESO PENAL Y LA EFICIENTE ADMINISTRACIÓN DE JUSTICIA</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -653,24 +653,24 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>AutoresAnderson Ramírez, Carlos Antonio</t>
+          <t>AutoresQuiroz Barboza, Segundo Teodomiro Zea Choquechambi, Oscar Medina Hermosilla, Elizabeth Sara ver más...</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06685/2023-CR</t>
+          <t>Proyecto de Ley 06713/2023-CR</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Fecha de Presentación15/12/2023</t>
+          <t>Fecha de Presentación20/12/2023</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE MODIFICA LA LEY 31313, LEY DE DESARROLLO URBANO SOSTENIBLE, CON LA FINALIDAD DE MITIGAR LOS EFECTOS NEGATIVOS GENERADOS POR PROYECTOS DE INFRAESTRUCTURA VIAL DE ALCANCE METROPOLITANO</t>
+          <t>TítuloLEY QUE DECLARA DE NECESIDAD PÚBLICA E INTERES NACIONAL LA EJECUCIÓN DEL PROYECTO DE INVERSION "MEJORAMIENTO Y AMPLIACIÓN DEL SERVICIO DE AGUA DEL SISTEMA DE RIEGO DEL CENTRO POBLADO LA COLMENA, DISTRITO DE LLAMA, PROVINCIA DE CHOTA, DEPARTAMENTO DE CAJAMARCA</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -685,24 +685,24 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>AutoresAragón Carreño, Luis Ángel Espinoza Vargas, Jhaec Darwin Portero López, Hilda Marleny ver más...</t>
+          <t>AutoresQuiroz Barboza, Segundo Teodomiro Zea Choquechambi, Oscar Medina Hermosilla, Elizabeth Sara ver más...</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06684/2023-CR</t>
+          <t>Proyecto de Ley 06712/2023-CR</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Fecha de Presentación15/12/2023</t>
+          <t>Fecha de Presentación20/12/2023</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE PROMUEVE EL TURISMO FÍLMICO EN LA REGIÓN DEL CUSCO</t>
+          <t>TítuloLEY QUE IMPULSA LA ASIGNACION DE USO TEMPORAL O DEFINITIVO DE BIENES Y VEHICULOS DECOMISADOS, INCAUTADOS O BAJO EXTINCIÓN DE DOMINIO A FAVOR DEL SERVICIO DE SEGURIDAD CIUDADANA</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -717,24 +717,24 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>AutoresAragón Carreño, Luis Ángel Espinoza Vargas, Jhaec Darwin Vergara Mendoza, Elvis Hernán ver más...</t>
+          <t>AutoresQuiroz Barboza, Segundo Teodomiro Medina Hermosilla, Elizabeth Sara Zea Choquechambi, Oscar ver más...</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06683/2023-CR</t>
+          <t>Proyecto de Ley 06711/2023-CR</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Fecha de Presentación15/12/2023</t>
+          <t>Fecha de Presentación20/12/2023</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Título"LEY QUE DECLARA DE NECESIDAD PÚBLICA PARA LA CREACIÓN DE UNA UNIDAD DE HEMODINÁMICA EN EL HOSPITAL REGIONAL DE LORETO"</t>
+          <t>TítuloLEY QUE AUTORIZA DE MANERA EXCEPCIONAL EL CAMBIO DEL GRUPO OCUPACIONAL Y LÍNEA DE CARRERA DEL PERSONAL TECNICO Y AUXILIAR ASISTENCIAL O ADMINISTRATIVO A PROFESIONAL ADMINISTRATIVO DEL MINISTERIO DE SALUD Y DE LAS UNIDADES EJECUTORAS DE LOS GOBIERNOS REGIONALES DURANTE EL AÑO FISCAL 2024</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -749,24 +749,24 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>AutoresSaavedra Casternoque, Hitler Azurín Loayza, Alfredo Valer Pinto, Héctor ver más...</t>
+          <t>AutoresQuiroz Barboza, Segundo Teodomiro Medina Hermosilla, Elizabeth Sara Tacuri Valdivia, Germán Adolfo ver más...</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06682/2023-CR</t>
+          <t>Proyecto de Ley 06710/2023-CR</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Fecha de Presentación15/12/2023</t>
+          <t>Fecha de Presentación20/12/2023</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Título"LEY QUE DECLARA DE INTERÉS NACIONAL Y NECESIDAD PÚBLICA LA CREACIÓN E IMPLEMENTACIÓN DEL CENTRO REGIONAL DE SALUD RENAL EN LA AMAZONÍA PERUANA"</t>
+          <t>TítuloLEY QUE DECLARA DE INTERÉS NACIONAL LA CREACIÓN, CONSTRUCCIÓN E IMPLEMENTACIÓN DEL PARQUE CIENTÍFICO TECNOLÓGICO DEL DEPARTAMENTO DE APURÍMAC</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -781,24 +781,24 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>AutoresSaavedra Casternoque, Hitler Azurín Loayza, Alfredo Valer Pinto, Héctor ver más...</t>
+          <t>AutoresTaipe Coronado, María Elizabeth Portalatino Ávalos, Kelly Roxana Palacios Huamán, Margot ver más...</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06681/2023-CR</t>
+          <t>Proyecto de Ley 06709/2023-CR</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Fecha de Presentación15/12/2023</t>
+          <t>Fecha de Presentación20/12/2023</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>TítuloPROYECTO DE LEY QUE REESTABLECE LA FORMACIÓN PRE-MILITAR EN LA EDUCACIÓN BÁSICA REGULAR (5TO AÑO DE EDUCACIÓN SECUNDARIA) Y MODIFICA EL ARTÍCULO 36° DE LA LEY 28044, LEY GENERAL DE EDUCACIÓN</t>
+          <t>TítuloLEY QUE DECLARA DE INTERÉS NACIONAL Y NECESIDAD PUBLICA LA AMPLIACIÓN Y MEJORAMIENTO CON ASFALTO DEL CORREDOR VIAL ECONÓMICO TRASANDINO QUE UNE LAS PROVINCIAS DE COTABAMBAS, ANTABAMBA Y AYMARAES, DEL DEPARTAMENTO DE APURÍMAC</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -813,24 +813,24 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>AutoresArriola Tueros, José Alberto Paredes Fonseca, Karol Ivett Alva Rojas, Carlos Enrique ver más...</t>
+          <t>AutoresTaipe Coronado, María Elizabeth Portalatino Ávalos, Kelly Roxana Palacios Huamán, Margot ver más...</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06680/2023-CR</t>
+          <t>Proyecto de Ley 06708/2023-CR</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Fecha de Presentación15/12/2023</t>
+          <t>Fecha de Presentación20/12/2023</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE MODIFICA LOS ARTÍCULOS 368-A, 368-B, 368-C Y 368-D DEL CODIGO PENAL REFERIDO A LA SEGURIDAD AL INTERIOR DE LOS ESTABLECIMIENTOS PENITENCIARIOS</t>
+          <t>TítuloLEY QUE ESTABLECE MEDIDAS EXTRAORDINARIAS PARA REACTIVAR LA ECONOMÍA DE LOS PRODUCTORES AGRARIOS Y GARANTIZAR LA CAMPAÑA AGRÍCOLA 2023-2024</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -845,24 +845,24 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>AutoresAlva Prieto, María del Carmen Arriola Tueros, José Alberto Paredes Fonseca, Karol Ivett ver más...</t>
+          <t>AutoresPortalatino Ávalos, Kelly Roxana Quispe Mamani, Wilson Rusbel Cruz Mamani, Flavio ver más...</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06679/2023-CR</t>
+          <t>Proyecto de Ley 06707/2023-CR</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Fecha de Presentación15/12/2023</t>
+          <t>Fecha de Presentación19/12/2023</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE MODIFICA LA PROGNOSIS DE LA PENA DE LOS DELITOS AMBIENTALES ESTABLECIDOS EN EL TITULO XIII: DELITOS AMBIENTALES DEL CODIGO PENAL Y DISPONE LA DEROGACIÓN DEL ARTICULO 314-D DEL MISMO CUERPO NORMATIVO</t>
+          <t>TítuloLEY QUE MODIFICA EL ARTÍCULO IV DEL TÍTULO PRELIMINAR, Y, LOS ARTÍCULOS 60, 61, 65, 68, 322, Y, 330 DEL CÓDIGO PROCESAL PENAL CON LA FINALIDAD DE FORTALECER EL SISTEMA DE JUSTICIA</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -877,24 +877,24 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>AutoresDávila Atanacio, Pasión Neomías Medina Hermosilla, Elizabeth Sara Tacuri Valdivia, Germán Adolfo ver más...</t>
+          <t>AutoresBurgos Oliveros, Juan Bartolomé Ugarte Mamani, Jhakeline Katy Acuña Peralta, Segundo Héctor</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06678/2023-CR</t>
+          <t>Proyecto de Ley 06706/2023-CR</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Fecha de Presentación15/12/2023</t>
+          <t>Fecha de Presentación19/12/2023</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE DISPONE EL OTORGAMIENTO DE UNA BONIFICACIÓN ESPECIAL POR UBICACIÓN DE LA INSTITUCIÓN EDUCATIVA: ÁMBITO ZONA DE ALTURA PARA TRABAJADORES ADMINISTRATIVOS DEL SECTOR EDUCACIÓN</t>
+          <t>TítuloLEY QUE MODIFICA LA LEY 29694, LEY QUE PROTEGE A LOS CONSUMIDORES DE LAS PRÁCTICAS ABUSIVAS EN LA SELECCIÓN O ADQUISICIÓN DE TEXTOS ESCOLARES</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -909,24 +909,24 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>AutoresDávila Atanacio, Pasión Neomías Medina Hermosilla, Elizabeth Sara Tacuri Valdivia, Germán Adolfo ver más...</t>
+          <t>AutoresUgarte Mamani, Jhakeline Katy Burgos Oliveros, Juan Bartolomé Acuña Peralta, Segundo Héctor</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06677/2023-CR</t>
+          <t>Proyecto de Ley 06705/2023-CR</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Fecha de Presentación15/12/2023</t>
+          <t>Fecha de Presentación19/12/2023</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE MODIFICA LA "LEY N° 31564 LEY DE PREVENCIÓN Y MITIGACIÓN DEL CONFLICTO DE INTERESES EN EL ACCESO Y SALIDA DE PERSONAL DEL SERVICIO PÚBLICO</t>
+          <t>TítuloLEY QUE MODIFICA EL ARTÍCULO 112 DE LA LEY 29338, LEY DE RECURSOS HÍDRICOS, A FIN DE PROMOVER LA PROTECCIÓN DEL AGUA SUPERFICIAL Y AGUA SUBTERRANEA</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -941,24 +941,24 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>AutoresDávila Atanacio, Pasión Neomías Medina Hermosilla, Elizabeth Sara Gutiérrez Ticona, Paul Silvio ver más...</t>
+          <t>AutoresUgarte Mamani, Jhakeline Katy Burgos Oliveros, Juan Bartolomé Acuña Peralta, Segundo Héctor</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06676/2023-CR</t>
+          <t>Proyecto de Ley 06704/2023-CR</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Fecha de Presentación15/12/2023</t>
+          <t>Fecha de Presentación19/12/2023</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE MODIFICA EL ARTÍCULO 273-A DEL CODIGO PENAL</t>
+          <t>TítuloLEY QUE ESTABLECE LOS REQUISITOS MÍNIMOS DEL PLAN DE TRABAJO PERICIAL PARA GARANTIZAR EL DERECHO DE DEFENSA DE LOS CIUDADANOS</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -973,24 +973,24 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>AutoresAlva Prieto, María del Carmen Monteza Facho, Silvia María Arriola Tueros, José Alberto ver más...</t>
+          <t>AutoresUgarte Mamani, Jhakeline Katy Burgos Oliveros, Juan Bartolomé Acuña Peralta, Segundo Héctor</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06675/2023-CR</t>
+          <t>Proyecto de Ley 06703/2023-CR</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Fecha de Presentación15/12/2023</t>
+          <t>Fecha de Presentación19/12/2023</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>TítuloLEY PARA LA IMPLEMENTACIÓN DEL SISTEMA DE GESTIÓN DE LA CALIDAD SEGÚN LA NORMA ISO 9001 EN LA ADMNISTRACIÓN PÚBLICA.</t>
+          <t>TítuloLEY QUE MODIFICA EL ARTÍCULO 5 DEL DECRETO LEGISLATIVO 1215, A FIN DE GARANTIZAR LA RECUPERACIÓN DE BIENES PERDIDOS O SUSTRAIDOS DE SU POSESIÓMN</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1005,29 +1005,29 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>AutoresZeballos Madariaga, Carlos Javier Juárez Calle, Heidy Lisbeth Calle Lobatón, Digna ver más...</t>
+          <t>AutoresUgarte Mamani, Jhakeline Katy Burgos Oliveros, Juan Bartolomé Acuña Peralta, Segundo Héctor</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06674/2023-CR</t>
+          <t>Proyecto de Ley 06702/2023-CR</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Fecha de Presentación15/12/2023</t>
+          <t>Fecha de Presentación19/12/2023</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE DECLARA DE INTERÉS NACIONAL LA INCORPORACIÓN EN EL CURRÍCULO NACIONAL DE ESCUELAS DE EDUCACIÓN SUPERIOR PEDAGÓGICA Y FACULTADES DE EDUCACIÓN LA ENSEÑANZA DE LEGUAS ORIGINARIAS</t>
+          <t>TítuloLEY QUE PROMUEVE LA ATENCIÓN Y CUIDADO DE LA SALUD MENTAL DE LOS PROFESIONALES SERUMISTAS, Y MODIFICA LA LEY N° 23330, QUE ESTABLECE EL SERVICIO RURAL Y URBANO MARGINAL DE SALUD — SERUMS</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Estado ProcesalEN COMISIÓN</t>
+          <t>Estado ProcesalPRESENTADO</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1037,93 +1037,93 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>AutoresCruz Mamani, Flavio Agüero Gutiérrez, María Antonieta Palacios Huamán, Margot ver más...</t>
+          <t>AutoresUgarte Mamani, Jhakeline Katy Burgos Oliveros, Juan Bartolomé Acuña Peralta, Segundo Héctor</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06673/2023-CR</t>
+          <t>Proyecto de Ley 06701/2023-PE</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Fecha de Presentación15/12/2023</t>
+          <t>Fecha de Presentación19/12/2023</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE DEROGA LA LEY N° 6194, LEY QUE CORTA LOS JUICIOS SEGUIDOS CON MOTIVO DE LAS SUBLEVACIONES INDÍGENAS DE AYACUCHO, LA MAR, TAYACAJA, HUANCANÉ, AZÁNGARO Y QUISPICANCHI</t>
+          <t>TítuloLEY QUE ESTABLECE MEDIDAS COMPLEMENTARIAS PARA PROMOVER EL SERVICIO DE TRANSPORTE PÚBLICO TERRESTRE DE MERCANCÍAS Y EL SERVICIO DE TRANSPORTE REGULAR DE PERSONAS, A TRAVÉS DE LA AMPLIACIÓN DE LA HABILITACIÓN PRESUPUESTARIA ESTABLECIDA POR LA LEY N° 31708, LEY QUE ESTABLECE MEDIDAS COMPLEMENTARIAS PARA PROMOVER EL SERVICIO DE TRANSPORTE PÚBLICO TERRESTRE DE MERCANCÍAS Y EL SERVICIO DE TRANSPORTE REGULAR DE PERSONAS</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Estado ProcesalEN COMISIÓN</t>
+          <t>Estado ProcesalPRESENTADO</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>ProponenteCongreso</t>
+          <t>ProponentePoder Ejecutivo</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>AutoresCruz Mamani, Flavio Palacios Huamán, Margot Mita Alanoca, Isaac ver más...</t>
+          <t>Autores</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06672/2023-PE</t>
+          <t>Proyecto de Ley 06700/2023-CR</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Fecha de Presentación15/12/2023</t>
+          <t>Fecha de Presentación19/12/2023</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>TítuloRESOLUCIÓN LEGISLATIVA QUE APRUEBA EL ACUERDO ENTRE EL GOBIERNO DE LA REPÚBLICA DEL PERÚ Y EL GOBIERNO DE LOS ESTADOS UNIDOS DE AMÉRICA PARA LA IMPLEMENTACIÓN DEL CONVENIO PARA COMBATIR EL USO INDEBIDO Y LA PRODUCCIÓN Y EL TRÁFICO ILÍCITOS DE DROGAS ENTRE LA REPÚBLICA DEL PERÚ Y LOS ESTADOS UNIDOS DE AMÉRICA, SUSCRITO EN LIMA EL 23 DE JULIO DE 1996 Y ACERCA DE LA INTERCEPTACIÓN AÉREA Y LA ASISTENCIA CONEXA DE LOS ESTADOS UNIDOS DE AMÉRICA</t>
+          <t>TítuloLEY QUE PERMITE A LOS JEFES DE PRÁCTICA FORMAR PARTE DE LA CARRERA DOCENTE UNIVERSITARIA</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Estado ProcesalEN COMISIÓN</t>
+          <t>Estado ProcesalPRESENTADO</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>ProponentePoder Ejecutivo</t>
+          <t>ProponenteCongreso</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Autores</t>
+          <t>AutoresBellido Ugarte, Guido Balcázar Zelada, José María Varas Meléndez, Elías Marcial ver más...</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06671/2023-CR</t>
+          <t>Proyecto de Ley 06699/2023-CR</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Fecha de Presentación15/12/2023</t>
+          <t>Fecha de Presentación19/12/2023</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>TítuloRESOLUCIÓN LEGISLATIVA DEL CONGRESO QUE DELEGA EN LA COMISIÓN PERMANENTE LA FACULTAD DE LEGISLAR</t>
+          <t>TítuloLEY QUE PRORROGA EL PLAZO DE EXONERACION DEL PAGO DE TASAS REGISTRALES Y CUALQUIER OTRO DERECHO DE TRÁMITE A LOS GOBIERNOS REGIONALES, EN EL EJERCICIO DE LA FUNCIÓN DESCRITA EN EL LITERAL N) DEL ARTÍCULO 51 DE LA LEY N° 27867, ESTABLECIDO EN EL DECRETO SUPREMO N° 020-2019-JUS</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Estado ProcesalPublicada en el Diario Oficial El Peruano</t>
+          <t>Estado ProcesalPRESENTADO</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1133,29 +1133,29 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>AutoresSoto Reyes, Alejandro Alegría García, Arturo Amuruz Dulanto, Yessica Rosselli</t>
+          <t>AutoresPadilla Romero, Javier Rommel Montoya Manrique, Jorge Carlos Muñante Barrios, Alejandro ver más...</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06670/2023-CR</t>
+          <t>Proyecto de Ley 06698/2023-CR</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Fecha de Presentación15/12/2023</t>
+          <t>Fecha de Presentación19/12/2023</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>TítuloLEY DE REFORMA CONSTITUCIONAL QUE MODIFICA LOS ARTÍCULOS 66 Y 73 DE LA CONSTITUCION POLÍTICA DEL PERÚ</t>
+          <t>TítuloLEY QUE CREA LA FECHA DEL 23 DE SETIEMBRE COMO "EL DIA NACIONAL DE LA JUVENTUD" A FIN DE OPTIMIZAR LOS RECURSOS PÚBLICOS DE LOS PROGRAMAS ASIGNADOS PARA SU DESARROLLO INTEGRAL.</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Estado ProcesalEN COMISIÓN</t>
+          <t>Estado ProcesalPRESENTADO</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1165,29 +1165,29 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>AutoresUgarte Mamani, Jhakeline Katy Burgos Oliveros, Juan Bartolomé Acuña Peralta, Segundo Héctor</t>
+          <t>AutoresPadilla Romero, Javier Rommel Montoya Manrique, Jorge Carlos Jáuregui Martínez de Aguayo, María de los Milagros Jackeline ver más...</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06669/2023-CR</t>
+          <t>Proyecto de Ley 06697/2023-CR</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Fecha de Presentación15/12/2023</t>
+          <t>Fecha de Presentación19/12/2023</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE DECLARA DE NECESIDAD PÚBLICA E INTERÉS NACIONAL LA REORGANIZACIÓN DEL ESTADO A TRAVÉS DE LA REDUCCIÓN POR FUSIÓN DE MINISTERIOS PARA LOGRAR SU OPTIMIZACIÓN</t>
+          <t>TítuloLEY QUE INCORPORA EL PRINCIPIO DE PREVENCIÓN DE LA SALUD Y FOMENTA LA ENSEÑANZA DE PRIMEROS AUXILIOS EN EL CURRICULO NACIONAL DE EDUCACIÓN</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Estado ProcesalEN COMISIÓN</t>
+          <t>Estado ProcesalPRESENTADO</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1197,29 +1197,29 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>AutoresUgarte Mamani, Jhakeline Katy Acuña Peralta, Segundo Héctor Burgos Oliveros, Juan Bartolomé</t>
+          <t>AutoresJuárez Gallegos, Carmen Patricia Castillo Rivas, Eduardo Enrique Rospigliosi Capurro, Fernando Miguel ver más...</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06668/2023-CR</t>
+          <t>Proyecto de Ley 06696/2023-CR</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Fecha de Presentación15/12/2023</t>
+          <t>Fecha de Presentación19/12/2023</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE PROTEGRE LA BIODIVERSIDAD ACUÁTICA EN LA ÁREAS NATURALES PROTEGIDAS</t>
+          <t>TítuloLEY QUE SANCIONA PENALMENTE EL EXPENDIO DE BEBIDAS ALCOHÓLICAS A MENORES DE EDAD</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Estado ProcesalEN COMISIÓN</t>
+          <t>Estado ProcesalPRESENTADO</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1229,29 +1229,29 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>AutoresParedes Fonseca, Karol Ivett Monteza Facho, Silvia María Alva Prieto, María del Carmen</t>
+          <t>AutoresCruz Mamani, Flavio Palacios Huamán, Margot Agüero Gutiérrez, María Antonieta ver más...</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06667/2023-CR</t>
+          <t>Proyecto de Ley 06695/2023-CR</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Fecha de Presentación15/12/2023</t>
+          <t>Fecha de Presentación19/12/2023</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE REGULA EL BENEFICIO DE SEGURIDAD Y PROTECCION PERSONAL A EX PRESIDENTES DE LA REPUBLICA Y MINISTROS DE ESTADO</t>
+          <t>TítuloLEY QUE DECLARA DE NECESIDAD PÚBLICA E INTERÉS NACIONAL LA CONSTRUCCIÓN DEL AEROPUERTO INTERNACIONAL EN LA PROVINCIA DE CHUCUITO, DEPARTAMENTO DE PUNO</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Estado ProcesalEN COMISIÓN</t>
+          <t>Estado ProcesalPRESENTADO</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1261,29 +1261,29 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>AutoresArriola Tueros, José Alberto Alva Prieto, María del Carmen Alva Rojas, Carlos Enrique ver más...</t>
+          <t>AutoresCruz Mamani, Flavio Palacios Huamán, Margot Agüero Gutiérrez, María Antonieta ver más...</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06666/2023-CR</t>
+          <t>Proyecto de Ley 06694/2023-CR</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Fecha de Presentación15/12/2023</t>
+          <t>Fecha de Presentación19/12/2023</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE PROPONE RESTABLECER LA OPERATIVIDAD DE LOS ESTABLECIMIENTOS PENITENCIARIOS "EL FRONTÓN" Y LA "COLONIA PENAL AGRÍCOLA DEL SEPA" A FIN DE TRASLADAR A LOS INTERNOS DE ALTA PELIGROSIDAD</t>
+          <t>TítuloLEY QUE AUTORIZA EL NOMBRAMIENTO EXCEPCIONAL Y PROGRESIVO DURANTE EL AÑO 2024 A FAVOR DE DOCENTES QUE NO ALCANZARON PLAZA VACANTE Y QUE APROBARON LA EVALUACIÓN PARA EL INGRESO EN LA CARRERA PÚBLICA MAGISTERIAL (2022- 2023)</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Estado ProcesalEN COMISIÓN</t>
+          <t>Estado ProcesalPRESENTADO</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1293,29 +1293,29 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>AutoresArriola Tueros, José Alberto Alva Rojas, Carlos Enrique Alva Prieto, María del Carmen ver más...</t>
+          <t>AutoresCruz Mamani, Flavio Palacios Huamán, Margot Agüero Gutiérrez, María Antonieta ver más...</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06665/2023-CR</t>
+          <t>Proyecto de Ley 06693/2023-CR</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Fecha de Presentación14/12/2023</t>
+          <t>Fecha de Presentación19/12/2023</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE ARTICULA LA POLÍTICA INTEGRAL DE MEJORA REGULATORIA</t>
+          <t>TítuloLEY QUE DISPONE LA EXONERACIÓN DEL PAGO DE TASAS JUDICIALES EN SOLICITUDES DE AUTORIZACIÓN PARA DISPONER DERECHOS DE MENORES</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Estado ProcesalEN COMISIÓN</t>
+          <t>Estado ProcesalPRESENTADO</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1325,29 +1325,29 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>AutoresTudela Gutiérrez, Adriana Josefina Gonzales Delgado, Diana Carolina Cavero Alva, Alejandro Enrique ver más...</t>
+          <t>AutoresCruz Mamani, Flavio Palacios Huamán, Margot Gonza Castillo, Américo ver más...</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06664/2023-CR</t>
+          <t>Proyecto de Ley 06692/2023-CR</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Fecha de Presentación14/12/2023</t>
+          <t>Fecha de Presentación19/12/2023</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE MODIFICA LA LEY 27783 LEY DE BASES DE LA DESCENTRALIZACION Y LA LEY 29158 LEY ORGÁNICA DEL PODER EJECUTIVO PARA DESCENTRALIZAR LAS SEDES DE ORGANISMOS PÚBLICOS EN UN DEPARTAMENTO DISTINTO DE LIMA</t>
+          <t>TítuloLEY QUE RECONOCE LA EXPERIENCIA LABORAL PREVIA AL EGRESO DE LA CARRERA TÉCNICA O UNIVERSITARIA</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Estado ProcesalEN COMISIÓN</t>
+          <t>Estado ProcesalPRESENTADO</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1357,29 +1357,29 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>AutoresAgüero Gutiérrez, María Antonieta Palacios Huamán, Margot Mita Alanoca, Isaac ver más...</t>
+          <t>AutoresCruz Mamani, Flavio Mita Alanoca, Isaac Agüero Gutiérrez, María Antonieta ver más...</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06663/2023-CR</t>
+          <t>Proyecto de Ley 06691/2023-CR</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Fecha de Presentación14/12/2023</t>
+          <t>Fecha de Presentación18/12/2023</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>TítuloLEY DE REFORMA CONSTITUCIONAL QUE MODIFICA EL ARTICULO 166 DE LA CONSTITUCIÓN POLÍTICA DEL PERÚ CON LA FINALIDAD DE CREAR LA GUARDIA NACIONAL Y LA POLICÍA DE INVESTIGACIÓN CRIMINAL</t>
+          <t>TítuloLEY DE EXPULSIÓN DE EXTRANJEROS DETENIDOS EN FLAGRANCIA DELICTIVA</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Estado ProcesalEN COMISIÓN</t>
+          <t>Estado ProcesalPRESENTADO</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1389,29 +1389,29 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>AutoresAzurín Loayza, Alfredo Pazo Nunura, Jose Bernardo Valer Pinto, Héctor ver más...</t>
+          <t>AutoresOlivos Martínez, Vivian Ventura Ángel, Héctor José Revilla Villanueva, César Manuel ver más...</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06662/2023-CR</t>
+          <t>Proyecto de Ley 06690/2023-CR</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Fecha de Presentación14/12/2023</t>
+          <t>Fecha de Presentación18/12/2023</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE ESTABLECE LA MERITOCRACIA Y EVALUACION DE PRECANDIDATOS A LA PRESIDENCIA DE LA REPUBLICA, CONGRESO DE LA REPUBLICA, GOBIERNOS REGIONALES Y MUNICIPALES</t>
+          <t>TítuloLEY QUE CREA LA UNIVERSIDAD NACIONAL AUTÓNOMA DEL VILCANOTA</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Estado ProcesalEN COMISIÓN</t>
+          <t>Estado ProcesalPRESENTADO</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1421,29 +1421,29 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>AutoresZeballos Madariaga, Carlos Javier Picón Quedo, Luis Raúl Elías Ávalos, José Luis ver más...</t>
+          <t>AutoresBalcázar Zelada, José María Coayla Juárez, Jorge Samuel Marticorena Mendoza, Jorge Alfonso ver más...</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06661/2023-CR</t>
+          <t>Proyecto de Ley 06689/2023-CR</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Fecha de Presentación14/12/2023</t>
+          <t>Fecha de Presentación18/12/2023</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE DECLARA DE NECESIDAD PÚBLICA LA INCORPORACIÓN DEL CURSO DE ENFERMEDADES RARAS O HUÉRFANAS (ERH) A LA CURRICULA NACIONAL DE EDUCACIÓN BÁSICA REGULAR</t>
+          <t>TítuloLEY MARCO PARA LA PROTECCIÓN Y FORTALECIMIENTO DE LA FAMILIA</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Estado ProcesalEN COMISIÓN</t>
+          <t>Estado ProcesalPRESENTADO</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1453,24 +1453,24 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>AutoresGarcía Correa, Idelso Manuel Chiabra León, Roberto Enrique Soto Reyes, Alejandro ver más...</t>
+          <t>AutoresJáuregui Martínez de Aguayo, María de los Milagros Jackeline Huamán Coronado, Raúl Infantes Castañeda, Mery Eliana ver más...</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06660/2023-CR</t>
+          <t>Proyecto de Ley 06688/2023-CR</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Fecha de Presentación14/12/2023</t>
+          <t>Fecha de Presentación18/12/2023</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE PROMUEVE EL USO DE LOS CONTRATOS DE CESIONES EN USO PARA SISTEMAS AGROFORESTALES - (CCUSAF), ESTABLECIDO EN LA LEY N° 29763, LEY FORESTAL Y DE FAUNA SILVESTRE</t>
+          <t>TítuloLEY QUE ESTABLECE PARÁMETROS PARA EL SANEAMIENTO DE LA PROPIEDAD DE LOS POSESIONARIOS DE VIVIENDA CONSTRUIDAS CON RECURSOS DEL FONAVI</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1485,24 +1485,24 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>AutoresParedes Castro, Francis Jhasmina Elías Ávalos, José Luis Juárez Calle, Heidy Lisbeth ver más...</t>
+          <t>AutoresLimachi Quispe, Nieves Esmeralda Bazán Narro, Sigrid Tesoro Cortez Aguirre, Isabel ver más...</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06659/2023-CR</t>
+          <t>Proyecto de Ley 06687/2023-CR</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Fecha de Presentación14/12/2023</t>
+          <t>Fecha de Presentación15/12/2023</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE MODIFICA EL ARTÍCULO 3 DE LA LEY N° 28451, LEY QUE CREA EL FONDO DE DESARROLLO SOCIOECONÓMICO DEL PROYECTO CAMISEA — FOCAM</t>
+          <t>TítuloLEY QUE MODIFICA EL DECRETO LEGISLATIVO N° 1372, DECRETO LEGISLATIVO QUE REGULA LA OBLIGACIÓN DE LAS PERSONAS JURÍDICAS Y/O ENTES JURÍDICOS DE INFORMAR LA IDENTIFICACIÓN DE LOS BENEFICIARIOS FINALES</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1517,24 +1517,24 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>AutoresTacuri Valdivia, Germán Adolfo Quiroz Barboza, Segundo Teodomiro Vásquez Vela, Lucinda ver más...</t>
+          <t>AutoresAnderson Ramírez, Carlos Antonio</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06658/2023-CR</t>
+          <t>Proyecto de Ley 06686/2023-CR</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Fecha de Presentación14/12/2023</t>
+          <t>Fecha de Presentación15/12/2023</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE INCORPORA EL NUMERAL 2, DEL ACAPITE 15.3, DEL ARTÍCULO 15 DEL DECRETO LEGISLATIVO N° 1441, DECRETO LEGISLATIVO DEL SISTEMA NACIONAL DE TESORERIA</t>
+          <t>TítuloLEY QUE MODIFICA EL ARTÍCULO 382 DEL CÓDIGO PENAL</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1549,24 +1549,24 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>AutoresMuñante Barrios, Alejandro Montoya Manrique, Jorge Carlos Ciccia Vásquez, Miguel Ángel ver más...</t>
+          <t>AutoresAnderson Ramírez, Carlos Antonio</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06657/2023-CR</t>
+          <t>Proyecto de Ley 06685/2023-CR</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Fecha de Presentación14/12/2023</t>
+          <t>Fecha de Presentación15/12/2023</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>TítuloLEY DE REFORMA CONSTITUCIONAL QUE MODIFICA EL ARTÍCULO 2, NUMERAL 24, LITERAL F) DE LA CONSTITUCIÓN POLÍTICA DEL PERÚ PARA AMPLIAR EL PLAZO DE DETENCIÓN POLICIAL</t>
+          <t>TítuloLEY QUE MODIFICA LA LEY 31313, LEY DE DESARROLLO URBANO SOSTENIBLE, CON LA FINALIDAD DE MITIGAR LOS EFECTOS NEGATIVOS GENERADOS POR PROYECTOS DE INFRAESTRUCTURA VIAL DE ALCANCE METROPOLITANO</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1581,29 +1581,29 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>AutoresMuñante Barrios, Alejandro Montoya Manrique, Jorge Carlos Ciccia Vásquez, Miguel Ángel ver más...</t>
+          <t>AutoresAragón Carreño, Luis Ángel Espinoza Vargas, Jhaec Darwin Portero López, Hilda Marleny ver más...</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06656/2023-CR</t>
+          <t>Proyecto de Ley 06684/2023-CR</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Fecha de Presentación14/12/2023</t>
+          <t>Fecha de Presentación15/12/2023</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>TítuloRESOLUCIÓN LEGISLATIVA DE DESIGNACIÓN DEL SEÑOR PEDRO ALFREDO HERNÁNDEZ CHÁVEZ COMO MAGISTRADO DEL TRIBUNAL CONSTITUCIONAL</t>
+          <t>TítuloLEY QUE PROMUEVE EL TURISMO FÍLMICO EN LA REGIÓN DEL CUSCO</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Estado ProcesalPublicada en el Diario Oficial El Peruano</t>
+          <t>Estado ProcesalEN COMISIÓN</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1613,24 +1613,24 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Autores</t>
+          <t>AutoresAragón Carreño, Luis Ángel Espinoza Vargas, Jhaec Darwin Vergara Mendoza, Elvis Hernán ver más...</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06655/2023-CR</t>
+          <t>Proyecto de Ley 06683/2023-CR</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Fecha de Presentación14/12/2023</t>
+          <t>Fecha de Presentación15/12/2023</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE CREA EL REGISTRO MUNICIPAL DE PERSONAS QUE REALIZAN EL REPARTO DE PRODUCTOS Y SERVICIOS A DOMICILIO - REMUPRE</t>
+          <t>Título"LEY QUE DECLARA DE NECESIDAD PÚBLICA PARA LA CREACIÓN DE UNA UNIDAD DE HEMODINÁMICA EN EL HOSPITAL REGIONAL DE LORETO"</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1645,24 +1645,24 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>AutoresGonza Castillo, Américo Mita Alanoca, Isaac Cerrón Rojas, Waldemar José ver más...</t>
+          <t>AutoresSaavedra Casternoque, Hitler Azurín Loayza, Alfredo Valer Pinto, Héctor ver más...</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06654/2023-CR</t>
+          <t>Proyecto de Ley 06682/2023-CR</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Fecha de Presentación13/12/2023</t>
+          <t>Fecha de Presentación15/12/2023</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE DECLARA DE NECESIDAD PÚBLICA E INTERÉS NACIONAL LA CONSTRUCCIÓN DE INSTITUTOS ESPECIALIZADOS MATERNO PERINATAL Y DEL NIÑO EN LAS REGIONES</t>
+          <t>Título"LEY QUE DECLARA DE INTERÉS NACIONAL Y NECESIDAD PÚBLICA LA CREACIÓN E IMPLEMENTACIÓN DEL CENTRO REGIONAL DE SALUD RENAL EN LA AMAZONÍA PERUANA"</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1677,24 +1677,24 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>AutoresPalacios Huamán, Margot Cruz Mamani, Flavio Gonza Castillo, Américo ver más...</t>
+          <t>AutoresSaavedra Casternoque, Hitler Azurín Loayza, Alfredo Valer Pinto, Héctor ver más...</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06653/2023-CR</t>
+          <t>Proyecto de Ley 06681/2023-CR</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Fecha de Presentación13/12/2023</t>
+          <t>Fecha de Presentación15/12/2023</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>TítuloRESOLUCIÓN LEGISLATIVA DEL CONGRESO QUE MODIFICA EL ARTÍCULO 23 DEL REGLAMENTO DEL CONGRESO DE LA REPÚBLICA</t>
+          <t>TítuloPROYECTO DE LEY QUE REESTABLECE LA FORMACIÓN PRE-MILITAR EN LA EDUCACIÓN BÁSICA REGULAR (5TO AÑO DE EDUCACIÓN SECUNDARIA) Y MODIFICA EL ARTÍCULO 36° DE LA LEY 28044, LEY GENERAL DE EDUCACIÓN</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1709,24 +1709,24 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>AutoresFlores Ruiz, Víctor Seferino Alegría García, Arturo Olivos Martínez, Vivian ver más...</t>
+          <t>AutoresArriola Tueros, José Alberto Paredes Fonseca, Karol Ivett Alva Rojas, Carlos Enrique ver más...</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06652/2023-CR</t>
+          <t>Proyecto de Ley 06680/2023-CR</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Fecha de Presentación13/12/2023</t>
+          <t>Fecha de Presentación15/12/2023</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE ESTABLECE MEDIDAS PARA GARANTIZAR LA PRESTACIÓN REAL Y EFECTIVA DE LOS ARBITRIOS MUNICIPALES QUE PAGAN LOS CONTRIBUYENTES</t>
+          <t>TítuloLEY QUE MODIFICA LOS ARTÍCULOS 368-A, 368-B, 368-C Y 368-D DEL CODIGO PENAL REFERIDO A LA SEGURIDAD AL INTERIOR DE LOS ESTABLECIMIENTOS PENITENCIARIOS</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1741,24 +1741,24 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>AutoresFlores Ruiz, Víctor Seferino Barbarán Reyes, Rosangella Andrea Castillo Rivas, Eduardo Enrique ver más...</t>
+          <t>AutoresAlva Prieto, María del Carmen Arriola Tueros, José Alberto Paredes Fonseca, Karol Ivett ver más...</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06651/2023-CR</t>
+          <t>Proyecto de Ley 06679/2023-CR</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Fecha de Presentación13/12/2023</t>
+          <t>Fecha de Presentación15/12/2023</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE FORTALECE LAS UNIDADES DE SOPORTE METABÓLICO NUTRICIONAL EN LOS ESTABLECIMIENTOS DE SALUD</t>
+          <t>TítuloLEY QUE MODIFICA LA PROGNOSIS DE LA PENA DE LOS DELITOS AMBIENTALES ESTABLECIDOS EN EL TITULO XIII: DELITOS AMBIENTALES DEL CODIGO PENAL Y DISPONE LA DEROGACIÓN DEL ARTICULO 314-D DEL MISMO CUERPO NORMATIVO</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1773,24 +1773,24 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>AutoresLuque Ibarra, Ruth Bazán Narro, Sigrid Tesoro Sánchez Palomino, Roberto Helbert ver más...</t>
+          <t>AutoresDávila Atanacio, Pasión Neomías Medina Hermosilla, Elizabeth Sara Tacuri Valdivia, Germán Adolfo ver más...</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06650/2023-CR</t>
+          <t>Proyecto de Ley 06678/2023-CR</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Fecha de Presentación13/12/2023</t>
+          <t>Fecha de Presentación15/12/2023</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>TítuloLEY PARA PREVENIR LA VIOLENCIA OBSTÉTRICA CONTRA LAS MUJERES CON DISCAPACIDAD SENSORIAL DURANTE EL ESTADO DE GESTACIÓN, PARTO Y POSPARTO, EN LOS ESTABLECIMIENTOS DE SALUD</t>
+          <t>TítuloLEY QUE DISPONE EL OTORGAMIENTO DE UNA BONIFICACIÓN ESPECIAL POR UBICACIÓN DE LA INSTITUCIÓN EDUCATIVA: ÁMBITO ZONA DE ALTURA PARA TRABAJADORES ADMINISTRATIVOS DEL SECTOR EDUCACIÓN</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1805,24 +1805,24 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>AutoresKamiche Morante, Luis Roberto Sánchez Palomino, Roberto Helbert Bazán Narro, Sigrid Tesoro ver más...</t>
+          <t>AutoresDávila Atanacio, Pasión Neomías Medina Hermosilla, Elizabeth Sara Tacuri Valdivia, Germán Adolfo ver más...</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06649/2023-CR</t>
+          <t>Proyecto de Ley 06677/2023-CR</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Fecha de Presentación13/12/2023</t>
+          <t>Fecha de Presentación15/12/2023</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>TítuloLEY DE SEGURIDAD HÍDRICA PARA LA AGRICULTURA SOSTENIBLE</t>
+          <t>TítuloLEY QUE MODIFICA LA "LEY N° 31564 LEY DE PREVENCIÓN Y MITIGACIÓN DEL CONFLICTO DE INTERESES EN EL ACCESO Y SALIDA DE PERSONAL DEL SERVICIO PÚBLICO</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1837,24 +1837,24 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>AutoresTaipe Coronado, María Elizabeth Palacios Huamán, Margot Mita Alanoca, Isaac ver más...</t>
+          <t>AutoresDávila Atanacio, Pasión Neomías Medina Hermosilla, Elizabeth Sara Gutiérrez Ticona, Paul Silvio ver más...</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06648/2023-CR</t>
+          <t>Proyecto de Ley 06676/2023-CR</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Fecha de Presentación13/12/2023</t>
+          <t>Fecha de Presentación15/12/2023</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE ESTABLECE LA DEFINICIÓN DE EMPRESA FAMILIAR</t>
+          <t>TítuloLEY QUE MODIFICA EL ARTÍCULO 273-A DEL CODIGO PENAL</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1869,24 +1869,24 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>AutoresAnderson Ramírez, Carlos Antonio</t>
+          <t>AutoresAlva Prieto, María del Carmen Monteza Facho, Silvia María Arriola Tueros, José Alberto ver más...</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06647/2023-CR</t>
+          <t>Proyecto de Ley 06675/2023-CR</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Fecha de Presentación13/12/2023</t>
+          <t>Fecha de Presentación15/12/2023</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE SANCIONA EL EVITAR EL CONTROL BIOMETRICO DE INGRESO Y SALIDA AL PAIS</t>
+          <t>TítuloLEY PARA LA IMPLEMENTACIÓN DEL SISTEMA DE GESTIÓN DE LA CALIDAD SEGÚN LA NORMA ISO 9001 EN LA ADMNISTRACIÓN PÚBLICA.</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1901,24 +1901,24 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>AutoresAlva Prieto, María del Carmen Monteza Facho, Silvia María Arriola Tueros, José Alberto ver más...</t>
+          <t>AutoresZeballos Madariaga, Carlos Javier Juárez Calle, Heidy Lisbeth Calle Lobatón, Digna ver más...</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06646/2023-CR</t>
+          <t>Proyecto de Ley 06674/2023-CR</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Fecha de Presentación13/12/2023</t>
+          <t>Fecha de Presentación15/12/2023</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>TítuloRESOLUCION LEGISLATIVA QUE MODIFICA LOS LITERALES C), D) Y F) DEL ARTICULO 89° DEL REGLAMENTO DEL CONGRESO</t>
+          <t>TítuloLEY QUE DECLARA DE INTERÉS NACIONAL LA INCORPORACIÓN EN EL CURRÍCULO NACIONAL DE ESCUELAS DE EDUCACIÓN SUPERIOR PEDAGÓGICA Y FACULTADES DE EDUCACIÓN LA ENSEÑANZA DE LEGUAS ORIGINARIAS</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1933,24 +1933,24 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>AutoresAlva Prieto, María del Carmen Monteza Facho, Silvia María Arriola Tueros, José Alberto ver más...</t>
+          <t>AutoresCruz Mamani, Flavio Agüero Gutiérrez, María Antonieta Palacios Huamán, Margot ver más...</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06645/2023-CR</t>
+          <t>Proyecto de Ley 06673/2023-CR</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Fecha de Presentación13/12/2023</t>
+          <t>Fecha de Presentación15/12/2023</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE REGULA LA PROTECCIÓN AL DENUNCIANTE DE HECHOS DE CORRUPCIÓN EN OBRA PÚBLICA Y OTORGA BENEFICIOS</t>
+          <t>TítuloLEY QUE DEROGA LA LEY N° 6194, LEY QUE CORTA LOS JUICIOS SEGUIDOS CON MOTIVO DE LAS SUBLEVACIONES INDÍGENAS DE AYACUCHO, LA MAR, TAYACAJA, HUANCANÉ, AZÁNGARO Y QUISPICANCHI</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1965,24 +1965,24 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>AutoresAnderson Ramírez, Carlos Antonio Camones Soriano, Lady Mercedes Zeballos Madariaga, Carlos Javier</t>
+          <t>AutoresCruz Mamani, Flavio Palacios Huamán, Margot Mita Alanoca, Isaac ver más...</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06644/2023-CR</t>
+          <t>Proyecto de Ley 06672/2023-PE</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Fecha de Presentación13/12/2023</t>
+          <t>Fecha de Presentación15/12/2023</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE DECLARA DE INTERÉS NACIONAL Y NECESIDAD PÚBLICA LA CONSTRUCCIÓN Y AMPLIACIÓN DEL PROYECTO DE IRRIGACIÓN MAGUNCHAL, EN EL DEPARTAMENTO DE AMAZONAS</t>
+          <t>TítuloRESOLUCIÓN LEGISLATIVA QUE APRUEBA EL ACUERDO ENTRE EL GOBIERNO DE LA REPÚBLICA DEL PERÚ Y EL GOBIERNO DE LOS ESTADOS UNIDOS DE AMÉRICA PARA LA IMPLEMENTACIÓN DEL CONVENIO PARA COMBATIR EL USO INDEBIDO Y LA PRODUCCIÓN Y EL TRÁFICO ILÍCITOS DE DROGAS ENTRE LA REPÚBLICA DEL PERÚ Y LOS ESTADOS UNIDOS DE AMÉRICA, SUSCRITO EN LIMA EL 23 DE JULIO DE 1996 Y ACERCA DE LA INTERCEPTACIÓN AÉREA Y LA ASISTENCIA CONEXA DE LOS ESTADOS UNIDOS DE AMÉRICA</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1992,34 +1992,34 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>ProponenteCongreso</t>
+          <t>ProponentePoder Ejecutivo</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>AutoresInfantes Castañeda, Mery Eliana Chacón Trujillo, Nilza Merly López Morales, Jeny Luz ver más...</t>
+          <t>Autores</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06643/2023-CR</t>
+          <t>Proyecto de Ley 06671/2023-CR</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Fecha de Presentación13/12/2023</t>
+          <t>Fecha de Presentación15/12/2023</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE DECLARA DE INTERÉS NACIONAL Y NECESIDAD PÚBLICA LA CONSTRUCCIÓN E IMPLEMENTACIÓN DEL NUEVO HOSPITAL REGIONAL DE HUACHO CATEGORÍA III - 1.</t>
+          <t>TítuloRESOLUCIÓN LEGISLATIVA DEL CONGRESO QUE DELEGA EN LA COMISIÓN PERMANENTE LA FACULTAD DE LEGISLAR</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Estado ProcesalEN COMISIÓN</t>
+          <t>Estado ProcesalPublicada en el Diario Oficial El Peruano</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2029,24 +2029,24 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>AutoresCerrón Rojas, Waldemar José Palacios Huamán, Margot Cruz Mamani, Flavio ver más...</t>
+          <t>AutoresSoto Reyes, Alejandro Alegría García, Arturo Amuruz Dulanto, Yessica Rosselli</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06642/2023-CR</t>
+          <t>Proyecto de Ley 06670/2023-CR</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Fecha de Presentación12/12/2023</t>
+          <t>Fecha de Presentación15/12/2023</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE FACULTA EL RETIRO VOLUNTARIO DE LOS FONDOS ADMINSTRADOS POR LAS AFP DE HASTA CUATRO (4) UIT</t>
+          <t>TítuloLEY DE REFORMA CONSTITUCIONAL QUE MODIFICA LOS ARTÍCULOS 66 Y 73 DE LA CONSTITUCION POLÍTICA DEL PERÚ</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2061,7 +2061,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>AutoresPariona Sinche, Alfredo</t>
+          <t>AutoresUgarte Mamani, Jhakeline Katy Burgos Oliveros, Juan Bartolomé Acuña Peralta, Segundo Héctor</t>
         </is>
       </c>
     </row>
